--- a/Expat Survey Data Tool.xlsx
+++ b/Expat Survey Data Tool.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yasien Fahmy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5553BB-7095-4953-A6A9-B6AA51D57A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F786549-432A-409C-84F1-E9921D445128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16230" yWindow="3705" windowWidth="12570" windowHeight="11895" activeTab="2" xr2:uid="{96DC0778-F038-4CB7-AD64-43C11707E6D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96DC0778-F038-4CB7-AD64-43C11707E6D3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Duplicates" sheetId="2" r:id="rId2"/>
-    <sheet name="Countries" sheetId="3" r:id="rId3"/>
+    <sheet name="All Data" sheetId="4" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Duplicates" sheetId="2" r:id="rId3"/>
+    <sheet name="Countries" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="119">
   <si>
     <t>Career Prospects</t>
   </si>
@@ -340,18 +341,73 @@
   </si>
   <si>
     <t>Schoenes Land um zu leben, muesste die sprache lernen fuer integration, bissl teuer aber sonst super. Vor allem die Cities mit ihren coolen Parks. Leider mag ich die Sprache nicht so sehr</t>
+  </si>
+  <si>
+    <t>Quality of Life</t>
+  </si>
+  <si>
+    <t>Leisure Options</t>
+  </si>
+  <si>
+    <t>Health &amp; Well-Being</t>
+  </si>
+  <si>
+    <t>Safety &amp; Security</t>
+  </si>
+  <si>
+    <t>Environment &amp; Climate</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>Ease of Settling In</t>
+  </si>
+  <si>
+    <t>Local Friendliness</t>
+  </si>
+  <si>
+    <t>Finding Friends</t>
+  </si>
+  <si>
+    <t>Culture &amp; Welcome</t>
+  </si>
+  <si>
+    <t>Working Abroad</t>
+  </si>
+  <si>
+    <t>Work &amp; Leisure</t>
+  </si>
+  <si>
+    <t>Salary &amp; Job Security</t>
+  </si>
+  <si>
+    <t>Work Culture &amp; Satisfaction</t>
+  </si>
+  <si>
+    <t>Expat Essentials</t>
+  </si>
+  <si>
+    <t>Admin Topics</t>
+  </si>
+  <si>
+    <t>Housing</t>
+  </si>
+  <si>
+    <t>Language</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,8 +444,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF002060"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,8 +515,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -423,11 +536,173 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9"/>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="9"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -449,11 +724,54 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="3" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="Header 1" xfId="1" xr:uid="{0E16BB20-7027-49B6-AD35-3857DB3B2745}"/>
+    <cellStyle name="Header 2" xfId="2" xr:uid="{0CF83B95-0B8A-4714-9245-806A34B9E2A2}"/>
+    <cellStyle name="Highlight" xfId="3" xr:uid="{5FAA5761-40B2-48F9-BAB3-B4A84950F5EE}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Numbers" xfId="4" xr:uid="{077D2D10-1AE1-4CC6-98CC-99DA1EFEA771}"/>
+    <cellStyle name="Subtotal" xfId="5" xr:uid="{55DF0742-311F-40E5-A90A-6BCADC377B79}"/>
+    <cellStyle name="Total Value" xfId="6" xr:uid="{ED06B38F-D6DB-4567-875D-977E4D85FE36}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -762,6 +1080,3526 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6330FE-EAC0-4FCC-8D1C-CC1E9393F786}">
+  <dimension ref="A1:U54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="15.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="22" style="15" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="15" customWidth="1"/>
+    <col min="10" max="11" width="15.42578125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="16" style="15" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" style="15" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" style="15" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" style="15" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" style="15" customWidth="1"/>
+    <col min="17" max="21" width="15.42578125" style="15" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="U2" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="U7" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="U12" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="S13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="U13" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="T14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U14" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="S15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="U15" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="R16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="U17" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="S18" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="U18" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R19" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="S19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="T19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="U19" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="R20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="U20" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="P21" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="S21" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="T21" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="U21" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="S22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="U22" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="R23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="S23" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="T23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="U23" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="P24" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R24" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="S24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="T24" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="U24" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="P25" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="R25" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="S25" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="T25" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U25" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="P26" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="R26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="S26" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="T26" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="U26" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="R27" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="T27" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="U27" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="O28" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="P28" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="R28" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S28" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="T28" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="U28" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P29" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="R29" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="S29" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="T29" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="U29" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="N30" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="P30" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S30" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="T30" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="U30" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="O31" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P31" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q31" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R31" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="S31" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="T31" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U31" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N32" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="O32" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="P32" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S32" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T32" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="U32" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="N33" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="O33" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="P33" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="R33" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S33" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="T33" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="U33" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="M34" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="N34" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P34" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R34" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="S34" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="T34" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="U34" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O35" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q35" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="R35" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="S35" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="T35" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="U35" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M36" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="O36" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="P36" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="R36" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="S36" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="T36" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="U36" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M37" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O37" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P37" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q37" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="R37" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="S37" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="T37" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="U37" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="O38" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="P38" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q38" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="R38" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="S38" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="T38" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="U38" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M39" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N39" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O39" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="P39" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q39" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="R39" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S39" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="T39" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="U39" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L40" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="M40" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="O40" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R40" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="S40" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="T40" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="U40" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="M41" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="O41" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q41" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="R41" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="S41" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="T41" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="U41" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L42" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="N42" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O42" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="P42" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q42" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R42" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="S42" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="T42" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U42" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J43" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L43" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M43" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="O43" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="P43" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q43" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="R43" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S43" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="T43" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="U43" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M44" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="N44" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="O44" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P44" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q44" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="R44" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S44" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="T44" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="U44" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L45" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M45" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="N45" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O45" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="P45" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q45" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R45" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="S45" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="T45" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="U45" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L46" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N46" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O46" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="P46" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q46" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="R46" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S46" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="T46" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U46" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L47" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M47" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="N47" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="O47" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="P47" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q47" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="R47" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S47" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="T47" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="U47" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="N48" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="O48" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P48" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q48" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="R48" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="S48" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="T48" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="U48" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L49" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M49" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N49" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="O49" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="P49" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q49" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="R49" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="S49" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="T49" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="U49" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L50" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M50" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="N50" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="O50" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="P50" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q50" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="R50" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="S50" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="T50" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="U50" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L51" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N51" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O51" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q51" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="R51" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="S51" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="T51" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U51" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J52" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L52" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="N52" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="O52" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P52" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q52" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="R52" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="S52" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="T52" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="U52" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L53" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="M53" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N53" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O53" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="P53" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q53" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="R53" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="S53" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="T53" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="U53" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I54" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J54" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K54" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L54" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="M54" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="N54" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="O54" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="P54" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q54" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="R54" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="S54" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="T54" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="U54" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="K1:O1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="O50:O54">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE1D74B-2190-43CF-BA87-E5C557FEBB10}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
@@ -771,22 +4609,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
     <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" customWidth="1"/>
+    <col min="15" max="15" width="30.140625" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2810,7 +6648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F415C3A-A226-4988-A41E-30A52E347468}">
   <dimension ref="A1:A52"/>
   <sheetViews>
@@ -2820,7 +6658,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3088,17 +6927,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94BACBB-B809-43E2-8848-00F899C03D44}">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
